--- a/data/Abfallaufkommen_Plastik.xlsx
+++ b/data/Abfallaufkommen_Plastik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinekreiss/Desktop/Master/3. Semester/InfoVis/plottys_website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{720B344E-C48B-D24B-9D5E-BD3B43FD3A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E20272-93C0-394E-9478-8431C4F5AE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16520" xr2:uid="{C033350D-F83E-BD4A-BD9A-A5563BA70A81}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -312,6 +309,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,2225 +639,2225 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9540000</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <v>11410000</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
         <v>12090000</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
         <v>12340000</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
         <v>12880000</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
         <v>14940000</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
         <v>15140000</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
         <v>16900000</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>11580000</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
         <v>14860000</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>14580000</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
         <v>14150000</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
         <v>15020000</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="K4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
         <v>17260000</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
         <v>17710000</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
         <v>19820000</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1332559</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
         <v>631509</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
         <v>1074910</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
         <v>716165</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
         <v>651775</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
         <v>1395458</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
         <v>715623</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="O5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
         <v>745450</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>44246</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
         <v>25864</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
         <v>72972</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
         <v>59950</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
         <v>99922</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6">
         <v>196124</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
         <v>213449</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6">
         <v>260939</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>169315</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
         <v>214116</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
         <v>232260</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
         <v>253923</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
         <v>325623</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
         <v>347929</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
         <v>430416</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="O7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
         <v>565453</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>53996</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
         <v>53779</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
         <v>72692</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
         <v>78548</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
         <v>104816</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="K8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
         <v>98820</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
         <v>114585</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="O8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6">
         <v>105457</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1138544</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
         <v>1413697</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
         <v>1936296</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
         <v>2288466</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
         <v>2530498</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
         <v>2704367</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
         <v>2734235</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="O9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
         <v>2864626</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>74358</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
         <v>89683</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
         <v>93713</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
         <v>25390</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
         <v>22706</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
         <v>32966</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
         <v>42836</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="O10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="6">
         <v>52389</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>309155</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
         <v>358202</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
         <v>39128</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
         <v>335134</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
         <v>121812</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
         <v>183148</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5">
         <v>148536</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="O11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
         <v>158578</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>355234</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
         <v>755493</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
         <v>672636</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
         <v>226992</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
         <v>133232</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
         <v>192248</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="M12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
         <v>256905</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="O12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6">
         <v>203069</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1205087</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
         <v>1616607</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
         <v>1903919</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
         <v>1465233</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
         <v>1142921</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
         <v>1105552</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="M13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5">
         <v>731064</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="O13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
         <v>815282</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1252500</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
         <v>1166210</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
         <v>1551260</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
         <v>1436697</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
         <v>1646794</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
         <v>1729628</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="M14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6">
         <v>1955098</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="O14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="6">
         <v>2058723</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>63232</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
         <v>186368</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
         <v>29505</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
         <v>24807</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5">
         <v>39186</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
         <v>49116</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="5">
         <v>65131</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="O15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
         <v>71670</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>1394288</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
         <v>1564187</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
         <v>1608694</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
         <v>2141461</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
         <v>2781865</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6">
         <v>3215966</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="M16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6">
         <v>3931868</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="O16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="6">
         <v>4388081</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>76365</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
         <v>56708</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
         <v>68365</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
         <v>83994</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
         <v>4243</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
         <v>5242</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="M17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="5">
         <v>6222</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="O17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="5">
         <v>8352</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>720</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
         <v>12122</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
         <v>8556</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
         <v>8116</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
         <v>21576</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6">
         <v>23397</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="M18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6">
         <v>61891</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="O18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6">
         <v>89055</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>17687</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>29869</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
         <v>30555</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
         <v>39960</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
         <v>50638</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5">
         <v>73131</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="M19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="5">
         <v>88744</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="O19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="5">
         <v>102441</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>17796</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
         <v>32195</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
         <v>19562</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
         <v>27304</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6">
         <v>26329</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6">
         <v>26325</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="M20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6">
         <v>28860</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="7">
+      <c r="O20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="6">
         <v>30005</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>125321</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
         <v>146575</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
         <v>150309</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
         <v>151480</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="I21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
         <v>185787</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
         <v>243630</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="M21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="5">
         <v>221334</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="O21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="5">
         <v>207563</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>223</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
         <v>673</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
         <v>2370</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
         <v>3520</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="6">
         <v>4359</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="K22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="6">
         <v>5660</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="M22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6">
         <v>8657</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="O22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="6">
         <v>7201</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>373761</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
         <v>377778</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
         <v>409640</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
         <v>518143</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5">
         <v>574632</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="K23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5">
         <v>570769</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="M23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="5">
         <v>521658</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="6">
+      <c r="O23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="5">
         <v>562236</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>589335</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
         <v>350081</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
         <v>640521</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
         <v>564604</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
         <v>357595</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="K24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="6">
         <v>371417</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="M24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="6">
         <v>371236</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="7">
+      <c r="O24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="6">
         <v>380208</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>195685</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
         <v>325373</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
         <v>407167</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
         <v>863236</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
         <v>969653</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="K25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
         <v>1188512</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="5">
         <v>1296322</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="6">
+      <c r="O25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="5">
         <v>1775671</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>234411</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
         <v>996201</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
         <v>193001</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6">
         <v>165192</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="I26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6">
         <v>176396</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="K26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="6">
         <v>232192</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="6">
         <v>307204</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="7">
+      <c r="O26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="6">
         <v>370413</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>190688</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>580044</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
         <v>418975</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
         <v>407225</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
         <v>488164</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="6">
+      <c r="K27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="5">
         <v>345617</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="5">
         <v>280235</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="6">
+      <c r="O27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="5">
         <v>301379</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>38289</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
         <v>43486</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
         <v>47275</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6">
         <v>56280</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="6">
         <v>47777</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="K28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="6">
         <v>61829</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="M28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6">
         <v>59273</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="7">
+      <c r="O28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="6">
         <v>69460</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>42470</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
         <v>75298</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5">
         <v>94192</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="G29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
         <v>111327</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
         <v>108140</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="K29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="5">
         <v>124269</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="6">
+      <c r="M29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="5">
         <v>148697</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="6">
+      <c r="O29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="5">
         <v>192170</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>79235</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6">
         <v>125325</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
         <v>87033</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
         <v>71352</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="I30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6">
         <v>91349</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="K30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="6">
         <v>116859</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="7">
+      <c r="M30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="6">
         <v>87361</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="7">
+      <c r="O30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="6">
         <v>120091</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>165970</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
         <v>188173</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
         <v>223251</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="G31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
         <v>218839</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="5">
         <v>175836</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="K31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5">
         <v>301187</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="6">
+      <c r="M31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="5">
         <v>315976</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="6">
+      <c r="O31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="5">
         <v>396061</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>3932</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
         <v>5481</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6">
         <v>4358</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6">
         <v>6427</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="7">
+      <c r="K32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="6">
         <v>5553</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
+      <c r="M32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6">
         <v>7975</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="7">
+      <c r="O32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="6">
         <v>10966</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
         <v>241</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
         <v>365</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
         <v>173</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="6">
+      <c r="K33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5">
         <v>207</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="6">
+      <c r="M33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="5">
         <v>336</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="6">
+      <c r="O33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="5">
         <v>268</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>56629</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
         <v>85475</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="E34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
         <v>92152</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="6">
         <v>88845</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="6">
         <v>157859</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="K34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6">
         <v>244118</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="M34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="6">
         <v>244217</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="7">
+      <c r="O34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="6">
         <v>275537</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>2042781</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <v>3447447</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
         <v>2488759</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="G35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
         <v>1809985</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5">
         <v>2133235</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="K35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="5">
         <v>2320533</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="6">
+      <c r="M35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="5">
         <v>2568031</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="6">
+      <c r="O35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="5">
         <v>2922915</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="I36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="6">
         <v>130</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="K36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="6">
         <v>4104</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="M36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="6">
         <v>2975</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" s="7">
+      <c r="O36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="6">
         <v>3269</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5">
         <v>1194</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="6">
+      <c r="G37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
         <v>4031</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5">
         <v>10860</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="K37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5">
         <v>8792</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N37" s="6">
+      <c r="M37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5">
         <v>24591</v>
       </c>
-      <c r="O37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P37" s="6">
+      <c r="O37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P37" s="5">
         <v>66671</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="K38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="7" t="s">
+      <c r="M38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P38" s="7" t="s">
+      <c r="O38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="G39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
         <v>6820</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="I39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="5">
         <v>17854</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39" s="6">
+      <c r="K39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="5">
         <v>27553</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N39" s="6">
+      <c r="M39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="5">
         <v>55076</v>
       </c>
-      <c r="O39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6">
+      <c r="O39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="5">
         <v>56220</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>204385</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
         <v>405008</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6">
         <v>217310</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="I40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6">
         <v>214580</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="K40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="6">
         <v>223381</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="6">
         <v>658164</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="7">
+      <c r="O40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="6">
         <v>725276</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="I41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
         <v>1867</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="K41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
         <v>27986</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="6">
+      <c r="M41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5">
         <v>13626</v>
       </c>
-      <c r="O41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P41" s="6">
+      <c r="O41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="5">
         <v>20290</v>
       </c>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="I42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="6">
         <v>877</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="7">
+      <c r="K42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="6">
         <v>4206</v>
       </c>
-      <c r="M42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="7">
+      <c r="M42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="6">
         <v>4625</v>
       </c>
-      <c r="O42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" s="7">
+      <c r="O42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" s="6">
         <v>38559</v>
       </c>
-      <c r="Q42" s="7" t="s">
+      <c r="Q42" s="6" t="s">
         <v>2</v>
       </c>
     </row>
